--- a/backend/src/modules/maintenance/templates/repair_task_library_import_template.xlsx
+++ b/backend/src/modules/maintenance/templates/repair_task_library_import_template.xlsx
@@ -477,12 +477,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>数量是否可修改</t>
+          <t>填报时数量是否可修改</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>积分是否可修改</t>
+          <t>填报时积分是否可修改</t>
         </is>
       </c>
     </row>
@@ -494,7 +494,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>自由文本</t>
+          <t>Ⅰ类</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>选填，自由文本，用于筛选区分。</t>
+          <t>选填（不填默认Ⅰ类），可选：Ⅰ类 / Ⅱ类 / Ⅲ类 / Ⅳ类；为空或其它值将按Ⅰ类处理。</t>
         </is>
       </c>
     </row>
@@ -634,24 +634,24 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>数量是否可修改</t>
+          <t>填报时数量是否可修改</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>选填，填写 是/否，默认 否。</t>
+          <t>选填，填写 是/否；此处调控是在员工完成任务时，是否可以修改填报时的数量。默认 否。</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>积分是否可修改</t>
+          <t>填报时积分是否可修改</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>选填，填写 是/否，默认 否。</t>
+          <t>选填，填写 是/否；此处调控是在员工完成任务时，是否可以修改填报时的积分。默认 否。</t>
         </is>
       </c>
     </row>
